--- a/q11/血肿1a_100人拟合函数选择结果.xlsx
+++ b/q11/血肿1a_100人拟合函数选择结果.xlsx
@@ -481,12 +481,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>三次函数回归</t>
+          <t>二次函数回归</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-1.08702385e-03 -1.63570597e-02  2.92372561e+00  8.06226732e+01]</t>
+          <t>[-7.19239070e-02  3.44037499e+00  7.98029456e+01]</t>
         </is>
       </c>
     </row>
@@ -511,12 +511,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>三次函数回归</t>
+          <t>二次函数回归</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-2.96687040e-05 -8.40735563e-04  5.00958511e-01  1.23519344e+01]</t>
+          <t>[-4.68017903e-03  5.96324425e-01  1.19673824e+01]</t>
         </is>
       </c>
     </row>
@@ -601,12 +601,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>三次函数回归</t>
+          <t>二次函数回归</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[-1.56101038e-07 -4.62311419e-05  1.92885086e-02  4.44075788e+00]</t>
+          <t>[-1.00978247e-04  2.02329438e-02  4.43986803e+00]</t>
         </is>
       </c>
     </row>
@@ -646,12 +646,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>三次函数回归</t>
+          <t>二次函数回归</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[ 7.30353679e-07  1.09138968e-04 -1.24187236e-01  3.53590774e+01]</t>
+          <t>[ 3.01657560e-04 -1.28465906e-01  3.53631642e+01]</t>
         </is>
       </c>
     </row>
@@ -676,12 +676,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>三次函数回归</t>
+          <t>二次函数回归</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[ 1.69878639e-05  1.92000146e-03 -2.14618757e-02  5.10475249e+01]</t>
+          <t>[ 4.32695055e-03 -5.26995360e-02  5.10763726e+01]</t>
         </is>
       </c>
     </row>
@@ -766,12 +766,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>三次函数回归</t>
+          <t>指数函数回归</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[ 2.13006449e-08  3.07999657e-06 -1.86525408e-02  5.08864944e+00]</t>
+          <t>[ 14.31976631 759.70592663  -9.23092962]</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>三次函数回归</t>
+          <t>二次函数回归</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[-2.06282307e-05 -2.36310787e-04  2.22784393e-01  3.40851640e+01]</t>
+          <t>[-2.27148630e-03  2.69686773e-01  3.38494954e+01]</t>
         </is>
       </c>
     </row>
@@ -901,12 +901,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>三次函数回归</t>
+          <t>二次函数回归</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[ 1.03455106e-02  1.67626111e-02 -2.16502630e+00  5.97470293e+01]</t>
+          <t>[ 0.1888803  -2.76462761 60.00509373]</t>
         </is>
       </c>
     </row>
@@ -1126,12 +1126,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>三次函数回归</t>
+          <t>二次函数回归</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>[ 7.52837728e-08 -1.89228083e-05 -8.79734435e-02  7.42509923e+01]</t>
+          <t>[ 2.87736024e-05 -9.34103860e-02  7.42563816e+01]</t>
         </is>
       </c>
     </row>
@@ -1261,12 +1261,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>三次函数回归</t>
+          <t>二次函数回归</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>[-5.11220061e-06 -2.91233096e-04  1.52962025e-01  4.30423343e+01]</t>
+          <t>[-1.21491970e-03  1.82411760e-01  4.30138032e+01]</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>三次函数回归</t>
+          <t>二次函数回归</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>[-6.58121012e-06 -1.76647847e-03  1.07997894e+00  2.59281158e+01]</t>
+          <t>[-3.88675059e-03  1.11006820e+00  2.59207259e+01]</t>
         </is>
       </c>
     </row>
@@ -1306,12 +1306,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>三次函数回归</t>
+          <t>二次函数回归</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>[-4.49562977e-05 -2.54854694e-03  1.77846993e-01  6.63793411e+01]</t>
+          <t>[-6.70450691e-03  2.74100023e-01  6.57874505e+01]</t>
         </is>
       </c>
     </row>
@@ -1321,12 +1321,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>三次函数回归</t>
+          <t>二次函数回归</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>[ 1.07772910e-06  1.16654180e-04 -1.33460425e-01  2.70243427e+01]</t>
+          <t>[ 4.24042876e-04 -1.45599628e-01  2.70361756e+01]</t>
         </is>
       </c>
     </row>
@@ -1396,12 +1396,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>三次函数回归</t>
+          <t>指数函数回归</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>[-1.60088172e-07  2.85831328e-04 -1.51757089e-01  2.36628021e+01]</t>
+          <t>[27.40335031 44.43098573  0.81109282]</t>
         </is>
       </c>
     </row>
@@ -1441,12 +1441,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>三次函数回归</t>
+          <t>二次函数回归</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>[ 7.78605492e-07  1.89746114e-05 -1.87354359e-02  2.74965883e+01]</t>
+          <t>[ 1.43436646e-04 -2.20324596e-02  2.75078349e+01]</t>
         </is>
       </c>
     </row>
@@ -1456,12 +1456,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>三次函数回归</t>
+          <t>指数函数回归</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>[-3.92855275e-09  3.08674499e-05 -6.41103445e-02  3.07426642e+01]</t>
+          <t>[ 34.55935638 281.87883735  -0.89756486]</t>
         </is>
       </c>
     </row>
@@ -1606,12 +1606,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>三次函数回归</t>
+          <t>二次函数回归</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>[ 3.71165899e-07  3.99495647e-05 -2.79064831e-02  2.61948728e+00]</t>
+          <t>[ 1.27752879e-04 -3.06589678e-02  2.63110102e+00]</t>
         </is>
       </c>
     </row>
@@ -1681,12 +1681,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>三次函数回归</t>
+          <t>二次函数回归</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>[ 2.03703812e-06 -2.53413703e-05 -5.80247732e-02  2.40737448e+01]</t>
+          <t>[ 3.27745238e-04 -7.07542270e-02  2.41677677e+01]</t>
         </is>
       </c>
     </row>
@@ -1756,12 +1756,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>三次函数回归</t>
+          <t>二次函数回归</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>[-1.08163159e-06  5.96059343e-05  6.43961498e-02  9.26415954e+00]</t>
+          <t>[-1.11138025e-04  7.02474097e-02  9.22163971e+00]</t>
         </is>
       </c>
     </row>
@@ -1846,12 +1846,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>三次函数回归</t>
+          <t>指数函数回归</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>[-1.31793556e-07  6.34366774e-04 -2.86563305e-01  3.99325539e+01]</t>
+          <t>[ 39.71635181 120.73945344   0.60871135]</t>
         </is>
       </c>
     </row>
@@ -1921,12 +1921,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>三次函数回归</t>
+          <t>二次函数回归</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>[-6.22246837e-04 -2.50510148e-03  1.70503994e+00  3.22332267e+01]</t>
+          <t>[-0.04183248  2.28511094 30.83015953]</t>
         </is>
       </c>
     </row>
